--- a/biology/Botanique/Campanule_agglomérée/Campanule_agglomérée.xlsx
+++ b/biology/Botanique/Campanule_agglomérée/Campanule_agglomérée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanula glomerata
 La Campanule agglomérée, ou Campanule à fleurs agglomérées ou encore Ganteline (Campanula glomerata) est une plante herbacée vivace de la famille des Campanulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Campanula aggregata Willd. ex Schltdl.
 Campanula congesta Schult.</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces et variété</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Campanula glomerata subsp. farinosa (Besser) Kirschl.
 Campanula glomerata subsp. glomerata
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est caractérisée par ses fleurs groupées en un glomérule terminal. D'autres glomérules plus petits  sont situés à l'aisselle des feuilles supérieures[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est caractérisée par ses fleurs groupées en un glomérule terminal. D'autres glomérules plus petits  sont situés à l'aisselle des feuilles supérieures.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La campanule agglomérée est présente dans les régions humides boisées, de l'ouest de la France (excepté la Bretagne ou très peu), dans les Pyrénées, de l'est du Massif  central, les Alpes, le Jura, et les Vosges.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en région Basse-Normandie (Article 1).
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Campanule_agglom%C3%A9r%C3%A9e</t>
+          <t>Campanule_agglomérée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Détail des fleurs
